--- a/src/test/resources/data/Impact.xlsx
+++ b/src/test/resources/data/Impact.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NazmulHossain\Projects\external-api-qa\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531C9B4C-5969-45A2-97FF-DA89494CC9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D7E3F-B3E4-4668-8CD0-9CAF0DE44FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3280" windowWidth="19200" windowHeight="6710" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
+    <workbookView xWindow="3510" yWindow="-20940" windowWidth="32565" windowHeight="9030" xr2:uid="{04B38584-319A-4E31-822B-CD2CB9389256}"/>
   </bookViews>
   <sheets>
-    <sheet name="ImpactData_1" sheetId="1" r:id="rId1"/>
+    <sheet name="GET_impacts_v1_impacts" sheetId="1" r:id="rId1"/>
     <sheet name="ImpactData_2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
